--- a/data/real_data/钻孔位置统计.xlsx
+++ b/data/real_data/钻孔位置统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\axinao\model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\axinao\model\data\real_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EBD72B-793A-489F-97C3-6AB8957A882A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C86D63-7776-42A0-8601-F413CB987E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4164" yWindow="1668" windowWidth="17520" windowHeight="12948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>钻孔名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>J1313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,8 +134,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00000000_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -165,14 +174,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -456,7 +469,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -465,7 +478,8 @@
     <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.21875" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" customWidth="1"/>
   </cols>
@@ -483,6 +497,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -503,6 +523,12 @@
       <c r="D2" s="2">
         <v>1235.8599999999999</v>
       </c>
+      <c r="E2" s="4">
+        <v>110.170328334</v>
+      </c>
+      <c r="F2" s="4">
+        <v>38.866376768000002</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -518,6 +544,12 @@
       <c r="D3" s="2">
         <v>1234.07</v>
       </c>
+      <c r="E3" s="4">
+        <v>110.170243532</v>
+      </c>
+      <c r="F3" s="4">
+        <v>38.875306268999999</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -533,6 +565,12 @@
       <c r="D4" s="2">
         <v>1228.3599999999999</v>
       </c>
+      <c r="E4" s="4">
+        <v>110.158082849</v>
+      </c>
+      <c r="F4" s="4">
+        <v>38.874971064</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -548,6 +586,12 @@
       <c r="D5" s="2">
         <v>1234.1500000000001</v>
       </c>
+      <c r="E5" s="4">
+        <v>110.158649543</v>
+      </c>
+      <c r="F5" s="4">
+        <v>38.884373725000003</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -563,6 +607,12 @@
       <c r="D6" s="2">
         <v>1221.76</v>
       </c>
+      <c r="E6" s="4">
+        <v>110.14725092400001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>38.866293949999999</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -578,6 +628,12 @@
       <c r="D7" s="2">
         <v>1222.9000000000001</v>
       </c>
+      <c r="E7" s="4">
+        <v>110.147406381</v>
+      </c>
+      <c r="F7" s="4">
+        <v>38.875386956</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -593,6 +649,12 @@
       <c r="D8" s="2">
         <v>1224.56</v>
       </c>
+      <c r="E8" s="4">
+        <v>110.147487973</v>
+      </c>
+      <c r="F8" s="4">
+        <v>38.884066134000001</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -607,6 +669,12 @@
       <c r="D9" s="2">
         <v>1209.6500000000001</v>
       </c>
+      <c r="E9" s="4">
+        <v>110.13624795299999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>38.856735497000003</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -622,6 +690,12 @@
       <c r="D10" s="2">
         <v>1212.08</v>
       </c>
+      <c r="E10" s="4">
+        <v>110.13589924599999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>38.866309954000002</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -637,6 +711,12 @@
       <c r="D11" s="2">
         <v>1219.31</v>
       </c>
+      <c r="E11" s="4">
+        <v>110.135544039</v>
+      </c>
+      <c r="F11" s="4">
+        <v>38.875146162999997</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -652,6 +732,12 @@
       <c r="D12" s="2">
         <v>1221.08</v>
       </c>
+      <c r="E12" s="4">
+        <v>110.135760451</v>
+      </c>
+      <c r="F12" s="4">
+        <v>38.884230967999997</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -667,6 +753,12 @@
       <c r="D13" s="2">
         <v>1202.76</v>
       </c>
+      <c r="E13" s="4">
+        <v>110.12437883299999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>38.857228653999996</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -682,6 +774,12 @@
       <c r="D14" s="2">
         <v>1208.55</v>
       </c>
+      <c r="E14" s="4">
+        <v>110.124127626</v>
+      </c>
+      <c r="F14" s="4">
+        <v>38.866023189000003</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -697,6 +795,12 @@
       <c r="D15" s="2">
         <v>1211.68</v>
       </c>
+      <c r="E15" s="4">
+        <v>110.124333466</v>
+      </c>
+      <c r="F15" s="4">
+        <v>38.874902118000001</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -711,8 +815,14 @@
       <c r="D16" s="2">
         <v>1217.47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>110.12386992</v>
+      </c>
+      <c r="F16" s="4">
+        <v>38.884039399000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -725,8 +835,14 @@
       <c r="D17" s="2">
         <v>1188.71</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4">
+        <v>110.11474705800001</v>
+      </c>
+      <c r="F17" s="4">
+        <v>38.857053446000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -739,8 +855,14 @@
       <c r="D18" s="2">
         <v>1203.19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4">
+        <v>110.113556063</v>
+      </c>
+      <c r="F18" s="4">
+        <v>38.866574596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -753,8 +875,14 @@
       <c r="D19" s="2">
         <v>1209.6600000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4">
+        <v>110.113578617</v>
+      </c>
+      <c r="F19" s="4">
+        <v>38.875547628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -767,8 +895,14 @@
       <c r="D20" s="2">
         <v>1214.03</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4">
+        <v>110.11267997</v>
+      </c>
+      <c r="F20" s="4">
+        <v>38.883900404999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -781,8 +915,14 @@
       <c r="D21" s="2">
         <v>1197.43</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4">
+        <v>110.10138674700001</v>
+      </c>
+      <c r="F21" s="4">
+        <v>38.856834763000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -795,8 +935,14 @@
       <c r="D22" s="2">
         <v>1204.3399999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4">
+        <v>110.101095484</v>
+      </c>
+      <c r="F22" s="4">
+        <v>38.866197405999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -809,8 +955,14 @@
       <c r="D23" s="2">
         <v>1212.67</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4">
+        <v>110.101549878</v>
+      </c>
+      <c r="F23" s="4">
+        <v>38.883761970999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -822,6 +974,12 @@
       </c>
       <c r="D24" s="2">
         <v>1206.6099999999999</v>
+      </c>
+      <c r="E24" s="4">
+        <v>110.10101993000001</v>
+      </c>
+      <c r="F24" s="4">
+        <v>38.875186794000001</v>
       </c>
     </row>
   </sheetData>
